--- a/Analysis notes 20160122.xlsx
+++ b/Analysis notes 20160122.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-23920" yWindow="1540" windowWidth="20480" windowHeight="12400" tabRatio="500"/>
+    <workbookView xWindow="-12460" yWindow="840" windowWidth="20480" windowHeight="12260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="69">
   <si>
     <t>Localizer</t>
   </si>
@@ -195,18 +195,12 @@
     <t>There's just 1 run per subj (?) so spm thinks it can't cross validate. Is that true?</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>firstlevel_ToMShort</t>
   </si>
   <si>
     <t>broken, same reason as MD</t>
   </si>
   <si>
-    <t>broken, same reason</t>
-  </si>
-  <si>
     <t>Crossvalidation error</t>
   </si>
   <si>
@@ -229,13 +223,16 @@
   </si>
   <si>
     <t>Ran it</t>
+  </si>
+  <si>
+    <t>broken, all Ss have 1 run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,13 +270,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -291,7 +299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -385,16 +393,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -441,6 +462,7 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -487,6 +509,7 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,16 +839,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="6" width="21" customWidth="1"/>
+    <col min="5" max="6" width="5.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="61.6640625" customWidth="1"/>
   </cols>
@@ -840,17 +863,17 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="N3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -880,7 +903,7 @@
         <v>56</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -912,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -941,7 +964,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -973,10 +996,13 @@
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -999,10 +1025,13 @@
         <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1025,38 +1054,38 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" ht="16">
+      <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="8">
         <v>0.1</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1109,26 +1138,29 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16">
-      <c r="B14" t="s">
+    <row r="14" spans="1:14" s="12" customFormat="1" ht="16">
+      <c r="A14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1210,398 +1242,407 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="B19" t="s">
+    <row r="19" spans="1:9" s="12" customFormat="1">
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="13">
         <v>0.1</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="B20" t="s">
+    <row r="20" spans="1:9" s="12" customFormat="1">
+      <c r="A20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="B21" t="s">
+    <row r="21" spans="1:9" s="12" customFormat="1">
+      <c r="B21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="23" spans="1:9" s="12" customFormat="1">
+      <c r="A23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="13">
         <v>0.1</v>
       </c>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+      <c r="H23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="12" customFormat="1">
+      <c r="A24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="13">
         <v>0.1</v>
       </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="H24" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="12" customFormat="1">
+      <c r="A25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="13">
         <v>0.1</v>
       </c>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="H25" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="10" customFormat="1">
+      <c r="A26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="H26" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="12" customFormat="1">
+      <c r="A27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H27" t="s">
-        <v>35</v>
+      <c r="H27" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
       <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="D39" t="s">
         <v>23</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="12" customFormat="1">
+      <c r="A45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
         <v>17</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D47" t="s">
         <v>36</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E47" t="s">
         <v>37</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F47" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G47" s="1">
         <v>0.1</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F48" t="s">
         <v>33</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G48" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
         <v>17</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D49" t="s">
         <v>36</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E49" t="s">
         <v>37</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F49" t="s">
         <v>44</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G49" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="D42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" t="s">
-        <v>55</v>
+      <c r="H49" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
